--- a/biology/Botanique/Arenaria_leptoclados/Arenaria_leptoclados.xlsx
+++ b/biology/Botanique/Arenaria_leptoclados/Arenaria_leptoclados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arenaria serpyllifolia var. leptoclados, Arenaria serpyllifolia var. tenuior
 Arenaria leptoclados est une espèce de plantes herbacées de la famille des Caryophyllacées dont la classification fait encore débat au début du XXIe siècle, tendant à la considérer comme une sous-espèce ou une simple variété botanique de Sabline à feuilles de serpolet (Arenaria serpyllifolia).
-nom accepté selon ITIS : Arenaria serpyllifolia var. tenuior Mert. &amp; W.D.J. Koch[2]
-nom accepté selon the Plant List : Arenaria serpyllifolia subsp. leptoclados (Rchb.) Nyman[3]
+nom accepté selon ITIS : Arenaria serpyllifolia var. tenuior Mert. &amp; W.D.J. Koch
+nom accepté selon the Plant List : Arenaria serpyllifolia subsp. leptoclados (Rchb.) Nyman
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom provient du grec λεπτός (grêle, fin), et κλάδος (rameau, branche arrachée).
 </t>
@@ -545,14 +559,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les différences par rapport à Arenaria serpyllifolia sont :
 calice plus petit, inférieur à 3 mm ;
 la plupart des graines ont moins de 0,5 mm de diamètre ;
 capsule peu ventrue et tardivement coriace (parois d’environ 0,03 mm d’épaisseur à maturité) ;
 son habitat se situe sur des pelouses sèches ou des affleurements rocheux.
-La floraison a lieu de mai à septembre[4].
+La floraison a lieu de mai à septembre.
 </t>
         </is>
       </c>
@@ -581,12 +597,14 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (5 mars 2020)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (5 mars 2020) :
 sous-espèce Arenaria leptoclados subsp. leptoclados
 sous-espèce Arenaria leptoclados subsp. peloponnesiaca
-Selon Tropicos                                           (5 mars 2020)[6] :
+Selon Tropicos                                           (5 mars 2020) :
 sous-espèce Arenaria leptoclados subsp. minutiflora P.Monts.
 sous-espèce Arenaria leptoclados subsp. viscidula (Rouy &amp; Foucaud) Holub
 variété Arenaria leptoclados var. lindbergi Sennen &amp; Mauricio
